--- a/Calc/ParserTable.xlsx
+++ b/Calc/ParserTable.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rules" sheetId="1" r:id="rId1"/>
+    <sheet name="ParseTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="58">
   <si>
     <t>Rule #</t>
   </si>
@@ -184,6 +185,15 @@
   </si>
   <si>
     <t>R_BRACKET</t>
+  </si>
+  <si>
+    <t>R_BRACK</t>
+  </si>
+  <si>
+    <t>ASS</t>
+  </si>
+  <si>
+    <t>SEMICOL</t>
   </si>
 </sst>
 </file>
@@ -335,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -348,18 +358,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -369,24 +374,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Y49"/>
+  <dimension ref="B1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,59 +733,56 @@
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" customWidth="1"/>
-    <col min="16" max="16" width="0.5703125" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="12" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
       <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="14"/>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="15">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="5"/>
@@ -791,16 +801,16 @@
       <c r="K3" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="2" t="s">
+      <c r="N3" s="5"/>
+      <c r="O3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="10"/>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="5"/>
       <c r="G4" t="s">
         <v>45</v>
@@ -817,25 +827,25 @@
       <c r="K4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
       <c r="D5" s="3"/>
       <c r="F5" s="5"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="17">
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="15">
         <v>2</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="5"/>
@@ -854,14 +864,14 @@
       <c r="K6" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="10"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="5"/>
       <c r="G7" t="s">
         <v>45</v>
@@ -875,10 +885,10 @@
       <c r="J7" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
         <v>3</v>
       </c>
       <c r="C8" t="s">
@@ -894,29 +904,29 @@
       <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="2" t="s">
+      <c r="N8" s="5"/>
+      <c r="O8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
       <c r="F9" s="5"/>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="17">
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="15">
         <v>4</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="5"/>
@@ -935,19 +945,19 @@
       <c r="K10" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="5"/>
       <c r="G11" s="7"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
         <v>5</v>
       </c>
       <c r="C12" t="s">
@@ -963,11 +973,11 @@
       <c r="G12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="16">
+      <c r="N12" s="5"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
         <v>6</v>
       </c>
       <c r="C13" t="s">
@@ -986,10 +996,10 @@
       <c r="H13" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
         <v>7</v>
       </c>
       <c r="C14" t="s">
@@ -1005,16 +1015,16 @@
       <c r="G14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
       <c r="D15" s="3"/>
       <c r="F15" s="5"/>
-      <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="9">
         <v>8</v>
       </c>
       <c r="C16" t="s">
@@ -1042,10 +1052,10 @@
       <c r="K16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="16">
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="9">
         <v>9</v>
       </c>
       <c r="C17" t="s">
@@ -1061,10 +1071,10 @@
       <c r="G17" t="s">
         <v>50</v>
       </c>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C18" t="s">
@@ -1080,20 +1090,20 @@
       <c r="G18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" t="s">
+      <c r="N18" s="5"/>
+      <c r="O18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2"/>
       <c r="F19" s="5"/>
-      <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="9">
         <v>10</v>
       </c>
       <c r="C20" t="s">
@@ -1109,16 +1119,16 @@
       <c r="G20" t="s">
         <v>45</v>
       </c>
-      <c r="P20" s="5"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
       <c r="D21" s="3"/>
       <c r="F21" s="5"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="9">
         <v>11</v>
       </c>
       <c r="C22" t="s">
@@ -1134,16 +1144,16 @@
       <c r="G22" t="s">
         <v>14</v>
       </c>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
       <c r="D23" s="3"/>
       <c r="F23" s="5"/>
-      <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="16">
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="9">
         <v>12</v>
       </c>
       <c r="C24" t="s">
@@ -1168,22 +1178,22 @@
       <c r="J24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P24" s="5"/>
-      <c r="Q24" t="s">
+      <c r="N24" s="5"/>
+      <c r="O24" t="s">
         <v>14</v>
       </c>
-      <c r="R24" t="s">
+      <c r="P24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
       <c r="D25" s="3"/>
       <c r="F25" s="5"/>
-      <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="16">
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="9">
         <v>13</v>
       </c>
       <c r="C26" t="s">
@@ -1199,10 +1209,10 @@
       <c r="G26" t="s">
         <v>48</v>
       </c>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="16">
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="9">
         <v>14</v>
       </c>
       <c r="C27" t="s">
@@ -1218,10 +1228,10 @@
       <c r="G27" t="s">
         <v>49</v>
       </c>
-      <c r="P27" s="5"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="16">
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="9">
         <v>15</v>
       </c>
       <c r="C28" t="s">
@@ -1237,16 +1247,16 @@
       <c r="G28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="5"/>
-      <c r="Q28" t="s">
+      <c r="N28" s="5"/>
+      <c r="O28" t="s">
         <v>14</v>
       </c>
-      <c r="R28" t="s">
+      <c r="P28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="16">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="9">
         <v>16</v>
       </c>
       <c r="C29" t="s">
@@ -1271,10 +1281,10 @@
       <c r="J29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P29" s="5"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="16">
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="9">
         <v>17</v>
       </c>
       <c r="C30" t="s">
@@ -1290,10 +1300,10 @@
       <c r="G30" t="s">
         <v>47</v>
       </c>
-      <c r="P30" s="5"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="16">
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="9">
         <v>18</v>
       </c>
       <c r="C31" t="s">
@@ -1309,10 +1319,10 @@
       <c r="G31" t="s">
         <v>46</v>
       </c>
-      <c r="P31" s="5"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="16">
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="9">
         <v>19</v>
       </c>
       <c r="C32" t="s">
@@ -1328,22 +1338,22 @@
       <c r="G32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" t="s">
+        <v>54</v>
+      </c>
+      <c r="P32" t="s">
+        <v>48</v>
+      </c>
       <c r="Q32" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="R32" t="s">
-        <v>48</v>
-      </c>
-      <c r="S32" t="s">
-        <v>49</v>
-      </c>
-      <c r="T32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="16">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="9">
         <v>20</v>
       </c>
       <c r="C33" t="s">
@@ -1359,10 +1369,10 @@
       <c r="G33" t="s">
         <v>27</v>
       </c>
-      <c r="P33" s="5"/>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="16">
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="9">
         <v>21</v>
       </c>
       <c r="C34" t="s">
@@ -1378,10 +1388,10 @@
       <c r="G34" t="s">
         <v>45</v>
       </c>
-      <c r="P34" s="5"/>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="16">
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="9">
         <v>22</v>
       </c>
       <c r="C35" t="s">
@@ -1397,10 +1407,10 @@
       <c r="G35" t="s">
         <v>44</v>
       </c>
-      <c r="P35" s="5"/>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B36" s="16">
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="9">
         <v>23</v>
       </c>
       <c r="C36" t="s">
@@ -1416,10 +1426,10 @@
       <c r="G36" t="s">
         <v>31</v>
       </c>
-      <c r="P36" s="5"/>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="16">
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="9">
         <v>24</v>
       </c>
       <c r="C37" t="s">
@@ -1435,10 +1445,10 @@
       <c r="G37" t="s">
         <v>33</v>
       </c>
-      <c r="P37" s="5"/>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="16">
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="9">
         <v>25</v>
       </c>
       <c r="C38" t="s">
@@ -1454,34 +1464,34 @@
       <c r="G38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" t="s">
+        <v>47</v>
+      </c>
+      <c r="P38" t="s">
+        <v>46</v>
+      </c>
       <c r="Q38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R38" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S38" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="T38" t="s">
-        <v>49</v>
-      </c>
-      <c r="U38" t="s">
-        <v>14</v>
-      </c>
-      <c r="V38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="D39" s="1"/>
       <c r="F39" s="5"/>
-      <c r="P39" s="5"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="16">
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="9">
         <v>26</v>
       </c>
       <c r="C40" t="s">
@@ -1497,10 +1507,10 @@
       <c r="G40" t="s">
         <v>34</v>
       </c>
-      <c r="P40" s="5"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B41" s="16">
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="9">
         <v>27</v>
       </c>
       <c r="C41" t="s">
@@ -1516,15 +1526,15 @@
       <c r="G41" t="s">
         <v>35</v>
       </c>
-      <c r="P41" s="5"/>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="P42" s="5"/>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="16">
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="9">
         <v>100</v>
       </c>
       <c r="C43" t="s">
@@ -1540,10 +1550,10 @@
       <c r="G43" t="s">
         <v>39</v>
       </c>
-      <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B44" s="16">
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="9">
         <v>101</v>
       </c>
       <c r="C44" t="s">
@@ -1559,10 +1569,10 @@
       <c r="G44" t="s">
         <v>40</v>
       </c>
-      <c r="P44" s="5"/>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B45" s="16">
+      <c r="N44" s="5"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="9">
         <v>102</v>
       </c>
       <c r="C45" t="s">
@@ -1578,10 +1588,10 @@
       <c r="G45" t="s">
         <v>41</v>
       </c>
-      <c r="P45" s="5"/>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B46" s="16">
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="9">
         <v>103</v>
       </c>
       <c r="C46" t="s">
@@ -1597,10 +1607,10 @@
       <c r="G46" t="s">
         <v>42</v>
       </c>
-      <c r="P46" s="5"/>
-    </row>
-    <row r="47" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="16">
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="9">
         <v>104</v>
       </c>
       <c r="C47" t="s">
@@ -1616,19 +1626,19 @@
       <c r="G47" t="s">
         <v>43</v>
       </c>
-      <c r="P47" s="6"/>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B48" s="19"/>
+      <c r="N47" s="6"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="10"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="19"/>
+      <c r="C49" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="G2:M2"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="O2:W2"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
@@ -1647,4 +1657,637 @@
     <customPr name="QAA_DRILLPATH_NODE_ID" r:id="rId1"/>
   </customProperties>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:V17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>2</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2</v>
+      </c>
+      <c r="T4" s="1">
+        <v>2</v>
+      </c>
+      <c r="U4" s="1">
+        <v>2</v>
+      </c>
+      <c r="V4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1">
+        <v>7</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
+        <v>6</v>
+      </c>
+      <c r="N5" s="1">
+        <v>6</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1">
+        <v>5</v>
+      </c>
+      <c r="R5" s="1">
+        <v>4</v>
+      </c>
+      <c r="S5" s="1">
+        <v>4</v>
+      </c>
+      <c r="T5" s="1">
+        <v>4</v>
+      </c>
+      <c r="U5" s="1">
+        <v>4</v>
+      </c>
+      <c r="V5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1">
+        <v>8</v>
+      </c>
+      <c r="S6" s="1">
+        <v>8</v>
+      </c>
+      <c r="T6" s="1">
+        <v>8</v>
+      </c>
+      <c r="U6" s="1">
+        <v>8</v>
+      </c>
+      <c r="V6" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <v>9</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1">
+        <v>10</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
+        <v>11</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1">
+        <v>12</v>
+      </c>
+      <c r="P10" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>12</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1">
+        <v>15</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1">
+        <v>16</v>
+      </c>
+      <c r="P12" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>16</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
+        <v>19</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <v>19</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <v>20</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1">
+        <v>22</v>
+      </c>
+      <c r="P14" s="1">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>21</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
+        <v>25</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1">
+        <v>25</v>
+      </c>
+      <c r="L15" s="1">
+        <v>24</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1">
+        <v>26</v>
+      </c>
+      <c r="N16" s="1">
+        <v>27</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1">
+        <v>100</v>
+      </c>
+      <c r="S17" s="1">
+        <v>101</v>
+      </c>
+      <c r="T17" s="1">
+        <v>102</v>
+      </c>
+      <c r="U17" s="1">
+        <v>103</v>
+      </c>
+      <c r="V17" s="1">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <customProperties>
+    <customPr name="QAA_DRILLPATH_NODE_ID" r:id="rId1"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<WorkbookDrillPathInfo xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.infor.com/qaa/DrillPath">
+  <CurrentDrillPath>
+    <DrillPathNode AnalysisType="NONE" Id="2d1d6e81-26ec-4e9d-8efe-224e2fb5c7b1" Name="Rules" HandleSummaryReportOnly="false">
+      <Children/>
+    </DrillPathNode>
+    <DrillPathNode AnalysisType="NONE" Id="18efbca3-6c73-4fa2-8ce2-a04be97e12ec" Name="ParseTable" HandleSummaryReportOnly="false" Source="">
+      <Children/>
+    </DrillPathNode>
+  </CurrentDrillPath>
+  <SavedDrillPath/>
+</WorkbookDrillPathInfo>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1A21AD1-3BDB-46F9-9D54-109A77B3B5D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.infor.com/qaa/DrillPath"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Calc/ParserTable.xlsx
+++ b/Calc/ParserTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="60">
   <si>
     <t>Rule #</t>
   </si>
@@ -58,18 +58,12 @@
     <t>declaration_rest</t>
   </si>
   <si>
-    <t>ASSIGN expr</t>
-  </si>
-  <si>
     <t>data_type IDENT declaration_rest SEMICOLON</t>
   </si>
   <si>
     <t>SEMICOLON</t>
   </si>
   <si>
-    <t>IDENT ASS expr SEMICOL</t>
-  </si>
-  <si>
     <t>expr</t>
   </si>
   <si>
@@ -178,9 +172,6 @@
     <t>FIRST</t>
   </si>
   <si>
-    <t>!!!!</t>
-  </si>
-  <si>
     <t>FOLLOW</t>
   </si>
   <si>
@@ -194,6 +185,21 @@
   </si>
   <si>
     <t>SEMICOL</t>
+  </si>
+  <si>
+    <t>ASSIGN right_side</t>
+  </si>
+  <si>
+    <t>IDENT ASS right_side SEMICOL</t>
+  </si>
+  <si>
+    <t>right_side</t>
+  </si>
+  <si>
+    <t>str_expr</t>
+  </si>
+  <si>
+    <t>STRING</t>
   </si>
 </sst>
 </file>
@@ -241,7 +247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -341,11 +347,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,16 +386,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -398,7 +419,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -715,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W49"/>
+  <dimension ref="B1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,38 +776,39 @@
     <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="G2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="13"/>
+      <c r="O2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="23"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
@@ -787,19 +825,19 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" t="s">
-        <v>43</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="2" t="s">
@@ -813,16 +851,16 @@
       <c r="E4" s="20"/>
       <c r="F4" s="5"/>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>5</v>
@@ -850,19 +888,19 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>40</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>41</v>
-      </c>
-      <c r="J6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" t="s">
-        <v>43</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="2"/>
@@ -874,16 +912,16 @@
       <c r="E7" s="20"/>
       <c r="F7" s="5"/>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N7" s="5"/>
     </row>
@@ -931,19 +969,19 @@
       </c>
       <c r="F10" s="5"/>
       <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
         <v>39</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>40</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>41</v>
-      </c>
-      <c r="J10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" t="s">
-        <v>43</v>
       </c>
       <c r="N10" s="5"/>
     </row>
@@ -971,7 +1009,7 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="2"/>
@@ -991,10 +1029,10 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N13" s="5"/>
     </row>
@@ -1013,7 +1051,7 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N14" s="5"/>
     </row>
@@ -1034,27 +1072,27 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s">
         <v>39</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>40</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>41</v>
       </c>
-      <c r="J16" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" t="s">
-        <v>43</v>
-      </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>9</v>
       </c>
@@ -1065,17 +1103,17 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>52</v>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="9">
+        <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1092,19 +1130,19 @@
       </c>
       <c r="N18" s="5"/>
       <c r="O18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2"/>
       <c r="F19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -1113,23 +1151,23 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="D21" s="3"/>
       <c r="F21" s="5"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -1138,501 +1176,571 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="D23" s="3"/>
       <c r="F23" s="5"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="9">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="D26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="9">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="5"/>
+      <c r="O27" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="9">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="9">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="9">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="9">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="9">
         <v>27</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" s="5"/>
-      <c r="O24" t="s">
-        <v>14</v>
-      </c>
-      <c r="P24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="D25" s="3"/>
-      <c r="F25" s="5"/>
-      <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="9">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" t="s">
-        <v>48</v>
-      </c>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="9">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" t="s">
-        <v>49</v>
-      </c>
-      <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="9">
-        <v>15</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N28" s="5"/>
-      <c r="O28" t="s">
-        <v>14</v>
-      </c>
-      <c r="P28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="9">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="9">
-        <v>17</v>
-      </c>
-      <c r="C30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" t="s">
-        <v>47</v>
-      </c>
-      <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="9">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="9">
-        <v>19</v>
-      </c>
-      <c r="C32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="N32" s="5"/>
-      <c r="O32" t="s">
-        <v>54</v>
-      </c>
-      <c r="P32" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>49</v>
-      </c>
-      <c r="R32" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N33" s="5"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="9">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
         <v>21</v>
       </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
       <c r="D34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E34" t="s">
-        <v>29</v>
+      <c r="E34" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="F34" s="5"/>
-      <c r="G34" t="s">
-        <v>45</v>
+      <c r="G34" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="N34" s="5"/>
+      <c r="O34" t="s">
+        <v>51</v>
+      </c>
+      <c r="P34" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>47</v>
+      </c>
+      <c r="R34" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
         <v>26</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>30</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N35" s="5"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N36" s="5"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="9">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
         <v>24</v>
       </c>
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
       <c r="D37" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N37" s="5"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>5</v>
+      <c r="E38" t="s">
+        <v>29</v>
       </c>
       <c r="F38" s="5"/>
-      <c r="G38" s="2" t="s">
-        <v>5</v>
+      <c r="G38" t="s">
+        <v>29</v>
       </c>
       <c r="N38" s="5"/>
-      <c r="O38" t="s">
-        <v>47</v>
-      </c>
-      <c r="P38" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>48</v>
-      </c>
-      <c r="R38" t="s">
-        <v>49</v>
-      </c>
-      <c r="S38" t="s">
-        <v>14</v>
-      </c>
-      <c r="T38" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="9">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>31</v>
+      </c>
       <c r="F39" s="5"/>
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
       <c r="N39" s="5"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E40" t="s">
-        <v>36</v>
+      <c r="E40" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="F40" s="5"/>
-      <c r="G40" t="s">
-        <v>34</v>
+      <c r="G40" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="N40" s="5"/>
+      <c r="O40" t="s">
+        <v>45</v>
+      </c>
+      <c r="P40" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>46</v>
+      </c>
+      <c r="R40" t="s">
+        <v>47</v>
+      </c>
+      <c r="S40" t="s">
+        <v>54</v>
+      </c>
+      <c r="T40" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="9">
-        <v>27</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="N41" s="5"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
+      <c r="D42" s="1"/>
       <c r="F42" s="5"/>
       <c r="N42" s="5"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="9">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N43" s="5"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="9">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N44" s="5"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B45" s="9">
-        <v>102</v>
-      </c>
-      <c r="C45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>41</v>
-      </c>
+      <c r="B45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" t="s">
-        <v>41</v>
-      </c>
       <c r="N45" s="5"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="9">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="9">
+        <v>101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" t="s">
+        <v>38</v>
+      </c>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="9">
+        <v>102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" t="s">
+        <v>39</v>
+      </c>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="9">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" t="s">
+        <v>40</v>
+      </c>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="9">
         <v>104</v>
       </c>
-      <c r="C47" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="6"/>
-      <c r="G47" t="s">
-        <v>43</v>
-      </c>
-      <c r="N47" s="6"/>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="10"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="10"/>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" t="s">
+        <v>41</v>
+      </c>
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1661,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V17"/>
+  <dimension ref="B1:W19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,76 +1781,81 @@
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="6.42578125" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" customWidth="1"/>
-    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" customWidth="1"/>
+    <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="26"/>
+      <c r="C2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="D2" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="22" t="s">
+      <c r="F2" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="22" t="s">
+      <c r="O2" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="V2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="W2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1">
@@ -1767,9 +1880,7 @@
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q3" s="1"/>
       <c r="R3" s="1">
         <v>1</v>
       </c>
@@ -1785,9 +1896,12 @@
       <c r="V3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1">
@@ -1812,9 +1926,7 @@
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1">
-        <v>2</v>
-      </c>
+      <c r="Q4" s="1"/>
       <c r="R4" s="1">
         <v>2</v>
       </c>
@@ -1830,9 +1942,12 @@
       <c r="V4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="W4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1"/>
@@ -1855,11 +1970,9 @@
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1">
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1">
         <v>5</v>
-      </c>
-      <c r="R5" s="1">
-        <v>4</v>
       </c>
       <c r="S5" s="1">
         <v>4</v>
@@ -1873,9 +1986,12 @@
       <c r="V5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="W5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1"/>
@@ -1893,9 +2009,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1">
-        <v>8</v>
-      </c>
+      <c r="R6" s="1"/>
       <c r="S6" s="1">
         <v>8</v>
       </c>
@@ -1908,9 +2022,12 @@
       <c r="V6" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="W6" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1"/>
@@ -1923,7 +2040,9 @@
       <c r="J7" s="1">
         <v>9</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>10</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1935,9 +2054,10 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1"/>
@@ -1954,17 +2074,18 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1">
-        <v>10</v>
-      </c>
-      <c r="R8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1">
+        <v>11</v>
+      </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1"/>
@@ -1976,7 +2097,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1989,10 +2110,11 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
-        <v>16</v>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2000,7 +2122,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2009,30 +2131,31 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="P10" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>12</v>
-      </c>
-      <c r="R10" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1">
+        <v>22</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
-        <v>18</v>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2040,7 +2163,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -2053,10 +2176,11 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
-        <v>21</v>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2064,7 +2188,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2073,44 +2197,45 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P12" s="1">
-        <v>16</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>16</v>
-      </c>
-      <c r="R12" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1">
+        <v>26</v>
+      </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
-        <v>23</v>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G13" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2123,10 +2248,11 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
-        <v>26</v>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2134,7 +2260,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2143,47 +2269,48 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P14" s="1">
-        <v>23</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>21</v>
-      </c>
-      <c r="R14" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1">
+        <v>31</v>
+      </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
-        <v>32</v>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G15" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L15" s="1">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -2195,9 +2322,10 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1"/>
@@ -2211,10 +2339,10 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="N16" s="1">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2224,10 +2352,11 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
-        <v>38</v>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2244,20 +2373,65 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1">
         <v>100</v>
       </c>
-      <c r="S17" s="1">
+      <c r="T17" s="1">
         <v>101</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="1">
         <v>102</v>
       </c>
-      <c r="U17" s="1">
+      <c r="V17" s="1">
         <v>103</v>
       </c>
-      <c r="V17" s="1">
+      <c r="W17" s="1">
         <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1">
+        <v>13</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1">
+        <v>13</v>
+      </c>
+      <c r="P18" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>14</v>
+      </c>
+      <c r="R18" s="1">
+        <v>13</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Calc/ParserTable.xlsx
+++ b/Calc/ParserTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="96">
   <si>
     <t>Rule #</t>
   </si>
@@ -200,6 +200,114 @@
   </si>
   <si>
     <t>STRING</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>COMMAND_LIST_1</t>
+  </si>
+  <si>
+    <t>COMMAND_LIST_2</t>
+  </si>
+  <si>
+    <t>COMMAND_1</t>
+  </si>
+  <si>
+    <t>COMMAND_2</t>
+  </si>
+  <si>
+    <t>COMMAND_3</t>
+  </si>
+  <si>
+    <t>COMMAND_4</t>
+  </si>
+  <si>
+    <t>DECLARATION_1</t>
+  </si>
+  <si>
+    <t>DECLARATION_REST_2</t>
+  </si>
+  <si>
+    <t>DECLARATION_REST_1</t>
+  </si>
+  <si>
+    <t>ASSIGN_1</t>
+  </si>
+  <si>
+    <t>EMPTY</t>
+  </si>
+  <si>
+    <t>RIGHT_SIDE_1</t>
+  </si>
+  <si>
+    <t>RIGHT_SIDE_2</t>
+  </si>
+  <si>
+    <t>EXPR</t>
+  </si>
+  <si>
+    <t>EXPR_REST_1</t>
+  </si>
+  <si>
+    <t>EXPR_REST_2</t>
+  </si>
+  <si>
+    <t>EXPR_REST_3</t>
+  </si>
+  <si>
+    <t>MULTIPL</t>
+  </si>
+  <si>
+    <t>MULTIPL_REST_1</t>
+  </si>
+  <si>
+    <t>MULTIPL_REST_2</t>
+  </si>
+  <si>
+    <t>MULTIPL_REST_3</t>
+  </si>
+  <si>
+    <t>MULTIPLICANT_1</t>
+  </si>
+  <si>
+    <t>MULTIPLICANT_2</t>
+  </si>
+  <si>
+    <t>MULTIPLICANT_3</t>
+  </si>
+  <si>
+    <t>MULTIPLICANT_4</t>
+  </si>
+  <si>
+    <t>FACTOR_2</t>
+  </si>
+  <si>
+    <t>FACTOR_1</t>
+  </si>
+  <si>
+    <t>STRING_1</t>
+  </si>
+  <si>
+    <t>FUNCTION_1</t>
+  </si>
+  <si>
+    <t>FUNCTION_2</t>
+  </si>
+  <si>
+    <t>DATA_TYPE_1</t>
+  </si>
+  <si>
+    <t>DATA_TYPE_2</t>
+  </si>
+  <si>
+    <t>DATA_TYPE_3</t>
+  </si>
+  <si>
+    <t>DATA_TYPE_4</t>
+  </si>
+  <si>
+    <t>DATA_TYPE_5</t>
   </si>
 </sst>
 </file>
@@ -379,9 +487,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -389,13 +494,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -419,24 +543,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,14 +862,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" customWidth="1"/>
     <col min="5" max="5" width="42.5703125" bestFit="1" customWidth="1"/>
@@ -781,46 +889,46 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="23"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="20"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="5"/>
@@ -845,10 +953,10 @@
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="5"/>
       <c r="G4" t="s">
         <v>43</v>
@@ -868,22 +976,22 @@
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
+      <c r="B5" s="8"/>
       <c r="D5" s="3"/>
       <c r="F5" s="5"/>
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="15">
-        <v>2</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="5"/>
@@ -906,10 +1014,10 @@
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="5"/>
       <c r="G7" t="s">
         <v>43</v>
@@ -926,8 +1034,8 @@
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="9">
-        <v>3</v>
+      <c r="B8" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -948,23 +1056,23 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
+      <c r="B9" s="8"/>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
       <c r="F9" s="5"/>
       <c r="N9" s="5"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
-        <v>4</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="5"/>
@@ -986,17 +1094,17 @@
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="5"/>
       <c r="G11" s="7"/>
       <c r="N11" s="5"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="9">
-        <v>5</v>
+      <c r="B12" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -1015,8 +1123,8 @@
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="9">
-        <v>6</v>
+      <c r="B13" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -1037,8 +1145,8 @@
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="9">
-        <v>7</v>
+      <c r="B14" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -1051,19 +1159,19 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="7" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="N14" s="5"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
+      <c r="B15" s="8"/>
       <c r="D15" s="3"/>
       <c r="F15" s="5"/>
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="9">
-        <v>8</v>
+      <c r="B16" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1093,8 +1201,8 @@
       <c r="N16" s="5"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="9">
-        <v>9</v>
+      <c r="B17" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1112,8 +1220,8 @@
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="9">
-        <v>10</v>
+      <c r="B18" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1130,19 +1238,19 @@
       </c>
       <c r="N18" s="5"/>
       <c r="O18" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
+      <c r="B19" s="8"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2"/>
       <c r="F19" s="5"/>
       <c r="N19" s="5"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="9">
-        <v>11</v>
+      <c r="B20" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -1160,14 +1268,14 @@
       <c r="N20" s="5"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
+      <c r="B21" s="8"/>
       <c r="D21" s="3"/>
       <c r="F21" s="5"/>
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="9">
-        <v>12</v>
+      <c r="B22" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -1180,19 +1288,19 @@
       </c>
       <c r="F22" s="5"/>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="N22" s="5"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
+      <c r="B23" s="8"/>
       <c r="D23" s="3"/>
       <c r="F23" s="5"/>
       <c r="N23" s="5"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="9">
-        <v>13</v>
+      <c r="B24" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C24" t="s">
         <v>57</v>
@@ -1219,8 +1327,8 @@
       <c r="N24" s="5"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="9">
-        <v>14</v>
+      <c r="B25" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C25" t="s">
         <v>57</v>
@@ -1241,7 +1349,7 @@
       <c r="N25" s="5"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
+      <c r="B26" s="8"/>
       <c r="D26" s="3"/>
       <c r="F26" s="5"/>
       <c r="G26" s="7"/>
@@ -1251,8 +1359,8 @@
       <c r="N26" s="5"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="9">
-        <v>22</v>
+      <c r="B27" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1278,15 +1386,15 @@
       </c>
       <c r="N27" s="5"/>
       <c r="O27" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="9">
-        <v>23</v>
+      <c r="B28" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -1304,8 +1412,8 @@
       <c r="N28" s="5"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="9">
-        <v>24</v>
+      <c r="B29" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -1323,8 +1431,8 @@
       <c r="N29" s="5"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="9">
-        <v>25</v>
+      <c r="B30" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
@@ -1341,15 +1449,15 @@
       </c>
       <c r="N30" s="5"/>
       <c r="O30" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="9">
-        <v>26</v>
+      <c r="B31" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="C31" t="s">
         <v>19</v>
@@ -1376,8 +1484,8 @@
       <c r="N31" s="5"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="9">
-        <v>27</v>
+      <c r="B32" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="C32" t="s">
         <v>21</v>
@@ -1395,8 +1503,8 @@
       <c r="N32" s="5"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="9">
-        <v>28</v>
+      <c r="B33" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C33" t="s">
         <v>21</v>
@@ -1414,8 +1522,8 @@
       <c r="N33" s="5"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="9">
-        <v>29</v>
+      <c r="B34" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="C34" t="s">
         <v>21</v>
@@ -1445,8 +1553,8 @@
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="9">
-        <v>30</v>
+      <c r="B35" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
@@ -1464,8 +1572,8 @@
       <c r="N35" s="5"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="9">
-        <v>31</v>
+      <c r="B36" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C36" t="s">
         <v>24</v>
@@ -1483,8 +1591,8 @@
       <c r="N36" s="5"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="9">
-        <v>32</v>
+      <c r="B37" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
@@ -1502,8 +1610,8 @@
       <c r="N37" s="5"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="9">
-        <v>33</v>
+      <c r="B38" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
@@ -1521,8 +1629,8 @@
       <c r="N38" s="5"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="9">
-        <v>34</v>
+      <c r="B39" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="C39" t="s">
         <v>30</v>
@@ -1540,8 +1648,8 @@
       <c r="N39" s="5"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="9">
-        <v>35</v>
+      <c r="B40" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="C40" t="s">
         <v>30</v>
@@ -1577,10 +1685,10 @@
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="9">
-        <v>36</v>
-      </c>
-      <c r="C41" s="10" t="s">
+      <c r="B41" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -1602,8 +1710,8 @@
       <c r="N42" s="5"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="9">
-        <v>75</v>
+      <c r="B43" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
@@ -1621,8 +1729,8 @@
       <c r="N43" s="5"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="9">
-        <v>76</v>
+      <c r="B44" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -1645,8 +1753,8 @@
       <c r="N45" s="5"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="9">
-        <v>100</v>
+      <c r="B46" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C46" t="s">
         <v>36</v>
@@ -1664,8 +1772,8 @@
       <c r="N46" s="5"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="9">
-        <v>101</v>
+      <c r="B47" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C47" t="s">
         <v>36</v>
@@ -1683,8 +1791,8 @@
       <c r="N47" s="5"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="9">
-        <v>102</v>
+      <c r="B48" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="C48" t="s">
         <v>36</v>
@@ -1702,8 +1810,8 @@
       <c r="N48" s="5"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="9">
-        <v>103</v>
+      <c r="B49" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="C49" t="s">
         <v>36</v>
@@ -1721,8 +1829,8 @@
       <c r="N49" s="5"/>
     </row>
     <row r="50" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="9">
-        <v>104</v>
+      <c r="B50" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="C50" t="s">
         <v>36</v>
@@ -1740,10 +1848,10 @@
       <c r="N50" s="6"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="10"/>
+      <c r="B51" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="O2:W2"/>
@@ -1758,6 +1866,7 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1771,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,73 +1898,73 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1">
@@ -1901,7 +2010,7 @@
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1">
@@ -1947,7 +2056,7 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1"/>
@@ -1991,7 +2100,7 @@
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1"/>
@@ -2027,7 +2136,7 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1"/>
@@ -2057,7 +2166,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1"/>
@@ -2085,7 +2194,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1"/>
@@ -2113,7 +2222,7 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1"/>
@@ -2147,7 +2256,7 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="1"/>
@@ -2179,7 +2288,7 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="1"/>
@@ -2213,7 +2322,7 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="1"/>
@@ -2251,7 +2360,7 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="1"/>
@@ -2285,7 +2394,7 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="1"/>
@@ -2325,7 +2434,7 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1"/>
@@ -2355,7 +2464,7 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="1"/>
@@ -2391,7 +2500,7 @@
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="1"/>
@@ -2427,7 +2536,7 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>58</v>
       </c>
       <c r="Q19" s="1">

--- a/Calc/ParserTable.xlsx
+++ b/Calc/ParserTable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="96">
   <si>
     <t>Rule #</t>
   </si>
@@ -863,7 +863,7 @@
   <dimension ref="B1:W51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,19 +1881,25 @@
   <dimension ref="B1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" customWidth="1"/>
-    <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1967,8 +1973,8 @@
       <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1977,44 +1983,44 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1">
-        <v>1</v>
+      <c r="K3" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
+      <c r="M3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1">
-        <v>1</v>
-      </c>
-      <c r="W3" s="1">
-        <v>1</v>
+      <c r="R3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>3</v>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2023,36 +2029,36 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1">
-        <v>2</v>
+      <c r="K4" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="1">
-        <v>2</v>
-      </c>
-      <c r="N4" s="1">
-        <v>2</v>
+      <c r="M4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1">
-        <v>2</v>
-      </c>
-      <c r="S4" s="1">
-        <v>2</v>
-      </c>
-      <c r="T4" s="1">
-        <v>2</v>
-      </c>
-      <c r="U4" s="1">
-        <v>2</v>
-      </c>
-      <c r="V4" s="1">
-        <v>2</v>
-      </c>
-      <c r="W4" s="1">
-        <v>2</v>
+      <c r="R4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
@@ -2067,36 +2073,36 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1">
-        <v>7</v>
+      <c r="K5" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="1">
-        <v>6</v>
-      </c>
-      <c r="N5" s="1">
-        <v>6</v>
+      <c r="M5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1">
-        <v>5</v>
-      </c>
-      <c r="S5" s="1">
-        <v>4</v>
-      </c>
-      <c r="T5" s="1">
-        <v>4</v>
-      </c>
-      <c r="U5" s="1">
-        <v>4</v>
-      </c>
-      <c r="V5" s="1">
-        <v>4</v>
-      </c>
-      <c r="W5" s="1">
-        <v>4</v>
+      <c r="R5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
@@ -2119,20 +2125,20 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1">
-        <v>8</v>
-      </c>
-      <c r="T6" s="1">
-        <v>8</v>
-      </c>
-      <c r="U6" s="1">
-        <v>8</v>
-      </c>
-      <c r="V6" s="1">
-        <v>8</v>
-      </c>
-      <c r="W6" s="1">
-        <v>8</v>
+      <c r="S6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
@@ -2146,11 +2152,11 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1">
-        <v>9</v>
-      </c>
-      <c r="K7" s="1">
-        <v>10</v>
+      <c r="J7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -2184,8 +2190,8 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1">
-        <v>11</v>
+      <c r="R8" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -2205,8 +2211,8 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1">
-        <v>12</v>
+      <c r="K9" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -2230,8 +2236,8 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1">
-        <v>22</v>
+      <c r="H10" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2239,15 +2245,15 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1">
-        <v>22</v>
-      </c>
-      <c r="P10" s="1">
-        <v>22</v>
+      <c r="O10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1">
-        <v>22</v>
+      <c r="R10" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -2260,19 +2266,21 @@
         <v>16</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1">
-        <v>24</v>
+      <c r="D11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1">
-        <v>25</v>
+      <c r="K11" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -2296,8 +2304,8 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1">
-        <v>26</v>
+      <c r="H12" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2305,15 +2313,15 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1">
-        <v>26</v>
-      </c>
-      <c r="P12" s="1">
-        <v>26</v>
+      <c r="O12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1">
-        <v>26</v>
+      <c r="R12" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2326,25 +2334,25 @@
         <v>21</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1">
-        <v>29</v>
-      </c>
-      <c r="E13" s="1">
-        <v>29</v>
-      </c>
-      <c r="F13" s="1">
-        <v>27</v>
-      </c>
-      <c r="G13" s="1">
-        <v>28</v>
+      <c r="D13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1">
-        <v>29</v>
+      <c r="I13" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1">
-        <v>29</v>
+      <c r="K13" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2368,8 +2376,8 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1">
-        <v>30</v>
+      <c r="H14" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2377,15 +2385,15 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1">
-        <v>32</v>
-      </c>
-      <c r="P14" s="1">
-        <v>33</v>
+      <c r="O14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1">
-        <v>31</v>
+      <c r="R14" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2398,28 +2406,28 @@
         <v>30</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1">
-        <v>35</v>
-      </c>
-      <c r="E15" s="1">
-        <v>35</v>
-      </c>
-      <c r="F15" s="1">
-        <v>35</v>
-      </c>
-      <c r="G15" s="1">
-        <v>35</v>
+      <c r="D15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1">
-        <v>35</v>
+      <c r="I15" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1">
-        <v>35</v>
-      </c>
-      <c r="L15" s="1">
-        <v>34</v>
+      <c r="K15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -2447,11 +2455,11 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1">
-        <v>75</v>
-      </c>
-      <c r="N16" s="1">
-        <v>76</v>
+      <c r="M16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2483,20 +2491,20 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="1">
-        <v>100</v>
-      </c>
-      <c r="T17" s="1">
-        <v>101</v>
-      </c>
-      <c r="U17" s="1">
-        <v>102</v>
-      </c>
-      <c r="V17" s="1">
-        <v>103</v>
-      </c>
-      <c r="W17" s="1">
-        <v>104</v>
+      <c r="S17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
@@ -2508,8 +2516,8 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1">
-        <v>13</v>
+      <c r="H18" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2517,17 +2525,17 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1">
-        <v>13</v>
-      </c>
-      <c r="P18" s="1">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>14</v>
-      </c>
-      <c r="R18" s="1">
-        <v>13</v>
+      <c r="O18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2539,8 +2547,8 @@
       <c r="B19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="Q19" s="1">
-        <v>36</v>
+      <c r="Q19" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
